--- a/Question_Set2/Programming skills/Smart Contracts.xlsx
+++ b/Question_Set2/Programming skills/Smart Contracts.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You ran the below code and received the following error: "TypeError: Function declared as view, but this expression (potentially) modifies the state and thus requires non-payable (the default) or payable."  To address this error, which of the following should you use to replace the withdraw function in the code below?pragma solidity &amp;gt=0.4.16 &amp;lt0.9.0\ncontract Wallet{\n   uint balance = 0\n   bool a = true\n   function deposit (uint dep_amt) public {\n       balance += dep_amt\n   }\n   function withdraw (uint wdraw_amt) public view returns(string memory error){\n       if(wdraw_amt&amp;lt=balance){\n           balance -= wdraw_amt\n       }\n    else{\n        error = "Insufficient Balance"\n        return error\n    }  \n   }\n   function getBalnce() public view returns(uint){\n       return balance\n   }\n}', 'ques_type': 2, 'options': ['function withdraw(uint wdraw_amt) public {\nif (wdraw_amt &amp;lt= balance) {\nbalance -= wdraw_amt\n} else {\nrevert("Insufficient Balance")\n', 'function withdraw(uint wdraw_amt) private ownable {\nif (wdraw_amt &amp;lt= balance) {\nbalance = wdraw_amt:\n} else {\nrevert("Insufficient Balance")\n', 'function withdraw(uint wdraw_amt) external viewable override {\nif (wdraw_amt &amp;lt= balance) {\nbalance -= wdraw_amt\n} else {\nrevert("Insufficient Balance")\n}\n}\n', 'function withdraw(uint wdraw_amt) external payable override {\nif (wdraw_amt = balance) {\nbalance &amp;gt wdraw_amt\n} else {revert("Insufficient Balance")\n}\n}\n'], 'score': 'function withdraw(uint wdraw_amt) public {\nif (wdraw_amt &amp;lt= balance) {\nbalance -= wdraw_amt\n} else {\nrevert("Insufficient Balance")'}, {'title': 'When deploying the contract shown below, you receive the following response: "Different number of components on the left hand side (1) than on the right hand side (0)." Which of the following should you add to the code to debug this error?pragma solidity &amp;gt=0.4.21 &amp;lt0.7.0\nimport “@openzeppelin/contracts/token/ERC721/ERC721.sol\n Contract Sketch is ERC721 {\n String[] public sketchs\n mapping(string =&amp;gt bool) _sketchExists\n constructor() ERC721(“Sketch” , “SKETCH”) public { \n }\n Function mint(string memory _sketch) public{\n Uint _id = sketchs.push(_sketch)\n _mint(msg.sender, _id)\n _sketchExists[_sketch] = true\n }\n  }', 'ques_type': 2, 'options': ['sketch.load(_sketch)\nuint _id = sketch.lenght(++)\n', 'sketchs.assign(_sketch)\nuint _id = sketchs.lenght +1\n', 'sketchs.push(_sketch)\nuint _id = sketchs.length - 1\n', 'sketchs.assign(_sketch)\nuint _id = sketchs.lenght (+1)\n'], 'score': 'sketchs.push(_sketch)\nuint _id = sketchs.length - 1'}, {'title': 'You are trying to Truffle test your code, but you receive the following error: "TypeError: greeting.getGreeting(...).call is not a function" Which of the following should you use to fix the error?  var Greetings = artifacts.require("Greetings")\n \ncontract(\'Greetings Test\', async (accounts) =&amp;gt {\n   it("check for greetings message", async () =&amp;gt {\n       let greeting = await Greetings.deployed()\n       let message = await greeting.getGreetings().call()\n       console.log(message)\n   })\n})', 'ques_type': 2, 'options': ['let message = push greeting.getGreeting()', 'let message = send greeting.getGreeting', 'let message = import greeting.getGreeting', 'let message = await greeting.getGreeting.call()'], 'score': 'let message = await greeting.getGreeting.call()'}, {'title': 'True or false: To interact with a contract from a DApp, you need the contract’s ABI (Application Binary Interface) and bytecode.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}]</t>
+    <t>questions = [
+    {
+        "title": "You ran the below code and received the following error: \"TypeError: Function declared as view, but this expression (potentially) modifies the state and thus requires non-payable (the default) or payable.\"  To address this error, which of the following should you use to replace the withdraw function in the code below?pragma solidity &amp;gt=0.4.16 &amp;lt0.9.0\ncontract Wallet{\n   uint balance = 0\n   bool a = true\n   function deposit (uint dep_amt) public {\n       balance += dep_amt\n   }\n   function withdraw (uint wdraw_amt) public view returns(string memory error){\n       if(wdraw_amt&amp;lt=balance){\n           balance -= wdraw_amt\n       }\n    else{\n        error = \"Insufficient Balance\"\n        return error\n    }  \n   }\n   function getBalnce() public view returns(uint){\n       return balance\n   }\n}",
+        "ques_type": 2,
+        "options": [
+            "function withdraw(uint wdraw_amt) public {\nif (wdraw_amt &amp;lt= balance) {\nbalance -= wdraw_amt\n} else {\nrevert(\"Insufficient Balance\")\n",
+            "function withdraw(uint wdraw_amt) private ownable {\nif (wdraw_amt &amp;lt= balance) {\nbalance = wdraw_amt:\n} else {\nrevert(\"Insufficient Balance\")\n",
+            "function withdraw(uint wdraw_amt) external viewable override {\nif (wdraw_amt &amp;lt= balance) {\nbalance -= wdraw_amt\n} else {\nrevert(\"Insufficient Balance\")\n}\n}\n",
+            "function withdraw(uint wdraw_amt) external payable override {\nif (wdraw_amt = balance) {\nbalance &amp;gt wdraw_amt\n} else {revert(\"Insufficient Balance\")\n}\n}\n"
+        ],
+        "score": "function withdraw(uint wdraw_amt) public {\nif (wdraw_amt &amp;lt= balance) {\nbalance -= wdraw_amt\n} else {\nrevert(\"Insufficient Balance\")"
+    },
+    {
+        "title": "When deploying the contract shown below, you receive the following response: \"Different number of components on the left hand side (1) than on the right hand side (0).\" Which of the following should you add to the code to debug this error?pragma solidity &amp;gt=0.4.21 &amp;lt0.7.0\nimport \u201c@openzeppelin/contracts/token/ERC721/ERC721.sol\n Contract Sketch is ERC721 {\n String[] public sketchs\n mapping(string =&amp;gt bool) _sketchExists\n constructor() ERC721(\u201cSketch\u201d , \u201cSKETCH\u201d) public { \n }\n Function mint(string memory _sketch) public{\n Uint _id = sketchs.push(_sketch)\n _mint(msg.sender, _id)\n _sketchExists[_sketch] = true\n }\n  }",
+        "ques_type": 2,
+        "options": [
+            "sketch.load(_sketch)\nuint _id = sketch.lenght(++)\n",
+            "sketchs.assign(_sketch)\nuint _id = sketchs.lenght +1\n",
+            "sketchs.push(_sketch)\nuint _id = sketchs.length - 1\n",
+            "sketchs.assign(_sketch)\nuint _id = sketchs.lenght (+1)\n"
+        ],
+        "score": "sketchs.push(_sketch)\nuint _id = sketchs.length - 1"
+    },
+    {
+        "title": "You are trying to Truffle test your code, but you receive the following error: \"TypeError: greeting.getGreeting(...).call is not a function\" Which of the following should you use to fix the error?  var Greetings = artifacts.require(\"Greetings\")\n \ncontract('Greetings Test', async (accounts) =&amp;gt {\n   it(\"check for greetings message\", async () =&amp;gt {\n       let greeting = await Greetings.deployed()\n       let message = await greeting.getGreetings().call()\n       console.log(message)\n   })\n})",
+        "ques_type": 2,
+        "options": [
+            "let message = push greeting.getGreeting()",
+            "let message = send greeting.getGreeting",
+            "let message = import greeting.getGreeting",
+            "let message = await greeting.getGreeting.call()"
+        ],
+        "score": "let message = await greeting.getGreeting.call()"
+    },
+    {
+        "title": "True or false: To interact with a contract from a DApp, you need the contract\u2019s ABI (Application Binary Interface) and bytecode.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
